--- a/Emh/4VFA/#1decentralization++.xlsx
+++ b/Emh/4VFA/#1decentralization++.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WINTER\Project\HuaShui\Emh\SVR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WINTER\Project\HuaShui\Emh\4VFA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9B2DEFD-EA38-4869-B29E-7EB3BDF89EFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F7511D5-D0AE-4BFD-A549-3FED5C158901}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="dd/mm/yyyy"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -47,13 +50,25 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -68,8 +83,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -350,15 +369,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N365"/>
+  <dimension ref="A1:P365"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="Q168" sqref="Q168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>-0.11434308663224323</v>
       </c>
@@ -398,8 +417,11 @@
       <c r="N1">
         <v>0.35185185185185186</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P1" s="1">
+        <v>41959</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>-0.27272518646012622</v>
       </c>
@@ -439,8 +461,11 @@
       <c r="N2">
         <v>0.37037037037037035</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P2" s="1">
+        <v>41960</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>-0.41087779690189324</v>
       </c>
@@ -480,8 +505,11 @@
       <c r="N3">
         <v>0.42592592592592593</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P3" s="1">
+        <v>41961</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>-7.1910499139414816E-2</v>
       </c>
@@ -521,8 +549,11 @@
       <c r="N4">
         <v>0.40740740740740738</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P4" s="1">
+        <v>41962</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1.5811818703385092E-2</v>
       </c>
@@ -562,8 +593,11 @@
       <c r="N5">
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P5" s="1">
+        <v>41963</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0.10214572576018371</v>
       </c>
@@ -603,8 +637,11 @@
       <c r="N6">
         <v>0.27777777777777779</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P6" s="1">
+        <v>41964</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0.13597246127366611</v>
       </c>
@@ -644,8 +681,11 @@
       <c r="N7">
         <v>0.41296296296296298</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P7" s="1">
+        <v>41965</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0.14808950086058525</v>
       </c>
@@ -685,8 +725,11 @@
       <c r="N8">
         <v>0.41851851851851851</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P8" s="1">
+        <v>41966</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0.12082616179001723</v>
       </c>
@@ -726,8 +769,11 @@
       <c r="N9">
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P9" s="1">
+        <v>41967</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9.002868617326458E-2</v>
       </c>
@@ -767,8 +813,11 @@
       <c r="N10">
         <v>0.30740740740740741</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P10" s="1">
+        <v>41968</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>0.23240390131956404</v>
       </c>
@@ -808,8 +857,11 @@
       <c r="N11">
         <v>0.43148148148148152</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P11" s="1">
+        <v>41969</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>0.16222604704532423</v>
       </c>
@@ -849,8 +901,11 @@
       <c r="N12">
         <v>0.32777777777777778</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P12" s="1">
+        <v>41970</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2.1870338496844589E-2</v>
       </c>
@@ -890,8 +945,11 @@
       <c r="N13">
         <v>0.41296296296296298</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P13" s="1">
+        <v>41971</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>-3.1577739529546768E-2</v>
       </c>
@@ -931,8 +989,11 @@
       <c r="N14">
         <v>0.51296296296296295</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P14" s="1">
+        <v>41972</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>-4.3258749282845649E-2</v>
       </c>
@@ -972,8 +1033,11 @@
       <c r="N15">
         <v>0.43148148148148152</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P15" s="1">
+        <v>41973</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>5.3677567412507163E-2</v>
       </c>
@@ -1013,8 +1077,11 @@
       <c r="N16">
         <v>0.63518518518518519</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P16" s="1">
+        <v>41974</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>8.3970166379804936E-2</v>
       </c>
@@ -1054,8 +1121,11 @@
       <c r="N17">
         <v>0.61111111111111116</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P17" s="1">
+        <v>41975</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>0.13698221457257603</v>
       </c>
@@ -1095,8 +1165,11 @@
       <c r="N18">
         <v>0.57407407407407407</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P18" s="1">
+        <v>41976</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>-9.8290304073436571E-2</v>
       </c>
@@ -1136,8 +1209,11 @@
       <c r="N19">
         <v>0.52962962962962956</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P19" s="1">
+        <v>41977</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>-4.931726907630514E-2</v>
       </c>
@@ -1177,8 +1253,11 @@
       <c r="N20">
         <v>0.46296296296296297</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P20" s="1">
+        <v>41978</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>-3.0131956397016591E-2</v>
       </c>
@@ -1218,8 +1297,11 @@
       <c r="N21">
         <v>0.46296296296296297</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P21" s="1">
+        <v>41979</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>-6.4968445209409059E-2</v>
       </c>
@@ -1259,8 +1341,11 @@
       <c r="N22">
         <v>0.44444444444444442</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P22" s="1">
+        <v>41980</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>-6.1939185312679168E-2</v>
       </c>
@@ -1300,8 +1385,11 @@
       <c r="N23">
         <v>0.3888888888888889</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P23" s="1">
+        <v>41981</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>-6.1939185312679168E-2</v>
       </c>
@@ -1341,8 +1429,11 @@
       <c r="N24">
         <v>0.22222222222222221</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P24" s="1">
+        <v>41982</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>-0.14986804360298325</v>
       </c>
@@ -1382,8 +1473,11 @@
       <c r="N25">
         <v>0.12962962962962962</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P25" s="1">
+        <v>41983</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>-9.7280550774526658E-2</v>
       </c>
@@ -1423,8 +1517,11 @@
       <c r="N26">
         <v>0.16666666666666666</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P26" s="1">
+        <v>41984</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>-0.13342512908777962</v>
       </c>
@@ -1464,8 +1561,11 @@
       <c r="N27">
         <v>0.18518518518518517</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P27" s="1">
+        <v>41985</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>-0.21087779690189329</v>
       </c>
@@ -1505,8 +1605,11 @@
       <c r="N28">
         <v>0.18518518518518517</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P28" s="1">
+        <v>41986</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>-0.39093516924842225</v>
       </c>
@@ -1546,8 +1649,11 @@
       <c r="N29">
         <v>0.18518518518518517</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P29" s="1">
+        <v>41987</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>-0.22551921973608716</v>
       </c>
@@ -1587,8 +1693,11 @@
       <c r="N30">
         <v>0.14814814814814814</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P30" s="1">
+        <v>41988</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>-0.25101549053356281</v>
       </c>
@@ -1628,8 +1737,11 @@
       <c r="N31">
         <v>0.14814814814814814</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P31" s="1">
+        <v>41989</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>-0.27651176133103844</v>
       </c>
@@ -1669,8 +1781,11 @@
       <c r="N32">
         <v>0.18518518518518517</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P32" s="1">
+        <v>41990</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>-0.24460126219162356</v>
       </c>
@@ -1710,8 +1825,11 @@
       <c r="N33">
         <v>0.14814814814814814</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P33" s="1">
+        <v>41991</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>-0.21927710843373485</v>
       </c>
@@ -1751,8 +1869,11 @@
       <c r="N34">
         <v>0.16666666666666666</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P34" s="1">
+        <v>41992</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>-0.2413654618473895</v>
       </c>
@@ -1792,8 +1913,11 @@
       <c r="N35">
         <v>0.14814814814814814</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P35" s="1">
+        <v>41993</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>-3.3666092943201373E-2</v>
       </c>
@@ -1833,8 +1957,11 @@
       <c r="N36">
         <v>0.16666666666666666</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P36" s="1">
+        <v>41994</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>8.2914515203671879E-2</v>
       </c>
@@ -1874,8 +2001,11 @@
       <c r="N37">
         <v>0.22222222222222221</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P37" s="1">
+        <v>41995</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>0.24309810671256463</v>
       </c>
@@ -1915,8 +2045,11 @@
       <c r="N38">
         <v>0.18518518518518517</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P38" s="1">
+        <v>41996</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>0.27394148020654058</v>
       </c>
@@ -1956,8 +2089,11 @@
       <c r="N39">
         <v>0.18518518518518517</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P39" s="1">
+        <v>41997</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>0.53831325301204835</v>
       </c>
@@ -1997,8 +2133,11 @@
       <c r="N40">
         <v>0.18518518518518517</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P40" s="1">
+        <v>41998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>0.410120481927711</v>
       </c>
@@ -2038,8 +2177,11 @@
       <c r="N41">
         <v>0.20370370370370369</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P41" s="1">
+        <v>41999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>0.39493975903614476</v>
       </c>
@@ -2079,8 +2221,11 @@
       <c r="N42">
         <v>0.18518518518518517</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P42" s="1">
+        <v>42000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>0.33646586345381529</v>
       </c>
@@ -2120,8 +2265,11 @@
       <c r="N43">
         <v>0.20370370370370369</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P43" s="1">
+        <v>42001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>0.11550200803212857</v>
       </c>
@@ -2161,8 +2309,11 @@
       <c r="N44">
         <v>0.14814814814814814</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P44" s="1">
+        <v>42002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>8.6265060240963851E-2</v>
       </c>
@@ -2202,8 +2353,11 @@
       <c r="N45">
         <v>0.12962962962962962</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P45" s="1">
+        <v>42003</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>0.12787148594377515</v>
       </c>
@@ -2243,8 +2397,11 @@
       <c r="N46">
         <v>0.12962962962962962</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P46" s="1">
+        <v>42004</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>0.26047045324153767</v>
       </c>
@@ -2284,8 +2441,11 @@
       <c r="N47">
         <v>0.20370370370370369</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P47" s="1">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>0.16709122203098112</v>
       </c>
@@ -2325,8 +2485,11 @@
       <c r="N48">
         <v>0.22222222222222221</v>
       </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P48" s="1">
+        <v>42006</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>8.1514629948364989E-2</v>
       </c>
@@ -2366,8 +2529,11 @@
       <c r="N49">
         <v>0.22222222222222221</v>
       </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P49" s="1">
+        <v>42007</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>0.28456683878370626</v>
       </c>
@@ -2407,8 +2573,11 @@
       <c r="N50">
         <v>0.1111111111111111</v>
       </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P50" s="1">
+        <v>42008</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>0.24784853700516365</v>
       </c>
@@ -2448,8 +2617,11 @@
       <c r="N51">
         <v>0.18518518518518517</v>
       </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P51" s="1">
+        <v>42009</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>0.25044176706827315</v>
       </c>
@@ -2489,8 +2661,11 @@
       <c r="N52">
         <v>0.14814814814814814</v>
       </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P52" s="1">
+        <v>42010</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>0.22547332185886418</v>
       </c>
@@ -2530,8 +2705,11 @@
       <c r="N53">
         <v>0.20370370370370369</v>
       </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P53" s="1">
+        <v>42011</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>0.22604704532415382</v>
       </c>
@@ -2571,8 +2749,11 @@
       <c r="N54">
         <v>0.18518518518518517</v>
       </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P54" s="1">
+        <v>42012</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>0.38439472174411926</v>
       </c>
@@ -2612,8 +2793,11 @@
       <c r="N55">
         <v>0.22222222222222221</v>
       </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P55" s="1">
+        <v>42013</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>0.41250717154331618</v>
       </c>
@@ -2653,8 +2837,11 @@
       <c r="N56">
         <v>0.20370370370370369</v>
       </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P56" s="1">
+        <v>42014</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>0.3966265060240966</v>
       </c>
@@ -2694,8 +2881,11 @@
       <c r="N57">
         <v>0.16666666666666666</v>
       </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P57" s="1">
+        <v>42015</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>0.51751004016064273</v>
       </c>
@@ -2735,8 +2925,11 @@
       <c r="N58">
         <v>0.18518518518518517</v>
       </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P58" s="1">
+        <v>42016</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>0.45043029259896727</v>
       </c>
@@ -2776,8 +2969,11 @@
       <c r="N59">
         <v>0.20370370370370369</v>
       </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P59" s="1">
+        <v>42017</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>0.37748709122203106</v>
       </c>
@@ -2817,8 +3013,11 @@
       <c r="N60">
         <v>0.16666666666666666</v>
       </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P60" s="1">
+        <v>42018</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>0.37917383820998291</v>
       </c>
@@ -2858,8 +3057,11 @@
       <c r="N61">
         <v>0.24074074074074073</v>
       </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P61" s="1">
+        <v>42019</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>0.20154905335628237</v>
       </c>
@@ -2899,8 +3101,11 @@
       <c r="N62">
         <v>0.20370370370370369</v>
       </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P62" s="1">
+        <v>42020</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>0.214974182444062</v>
       </c>
@@ -2940,8 +3145,11 @@
       <c r="N63">
         <v>0.16666666666666666</v>
       </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P63" s="1">
+        <v>42021</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>0.23247274813539881</v>
       </c>
@@ -2981,8 +3189,11 @@
       <c r="N64">
         <v>0.16666666666666666</v>
       </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P64" s="1">
+        <v>42022</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>0.40379804934021801</v>
       </c>
@@ -3022,8 +3233,11 @@
       <c r="N65">
         <v>0.18518518518518517</v>
       </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P65" s="1">
+        <v>42023</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>0.34223752151463011</v>
       </c>
@@ -3063,8 +3277,11 @@
       <c r="N66">
         <v>0.16666666666666666</v>
       </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P66" s="1">
+        <v>42024</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>0.34489959839357437</v>
       </c>
@@ -3104,8 +3321,11 @@
       <c r="N67">
         <v>0.16666666666666666</v>
       </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P67" s="1">
+        <v>42025</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>0.22508318990246703</v>
       </c>
@@ -3145,8 +3365,11 @@
       <c r="N68">
         <v>0.20370370370370369</v>
       </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P68" s="1">
+        <v>42026</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>0.39786574870912217</v>
       </c>
@@ -3186,8 +3409,11 @@
       <c r="N69">
         <v>0.20370370370370369</v>
       </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P69" s="1">
+        <v>42027</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>0.29686746987951823</v>
       </c>
@@ -3227,8 +3453,11 @@
       <c r="N70">
         <v>0.20370370370370369</v>
       </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P70" s="1">
+        <v>42028</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>0.31804934021801512</v>
       </c>
@@ -3268,8 +3497,11 @@
       <c r="N71">
         <v>0.22222222222222221</v>
       </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P71" s="1">
+        <v>42029</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>0.42080321285140571</v>
       </c>
@@ -3309,8 +3541,11 @@
       <c r="N72">
         <v>0.20370370370370369</v>
       </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P72" s="1">
+        <v>42030</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>0.41180722891566285</v>
       </c>
@@ -3350,8 +3585,11 @@
       <c r="N73">
         <v>0.24074074074074073</v>
       </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P73" s="1">
+        <v>42031</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>0.4391738382099829</v>
       </c>
@@ -3391,8 +3629,11 @@
       <c r="N74">
         <v>0.24074074074074073</v>
       </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P74" s="1">
+        <v>42032</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>0.31927710843373508</v>
       </c>
@@ -3432,8 +3673,11 @@
       <c r="N75">
         <v>0.25925925925925924</v>
       </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P75" s="1">
+        <v>42033</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>0.30953528399311536</v>
       </c>
@@ -3473,8 +3717,11 @@
       <c r="N76">
         <v>0.25925925925925924</v>
       </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P76" s="1">
+        <v>42034</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>0.29317269076305241</v>
       </c>
@@ -3514,8 +3761,11 @@
       <c r="N77">
         <v>0.27777777777777779</v>
       </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P77" s="1">
+        <v>42035</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>0.335926563396443</v>
       </c>
@@ -3555,8 +3805,11 @@
       <c r="N78">
         <v>0.25925925925925924</v>
       </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P78" s="1">
+        <v>42036</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>0.32547332185886413</v>
       </c>
@@ -3596,8 +3849,11 @@
       <c r="N79">
         <v>0.27777777777777779</v>
       </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P79" s="1">
+        <v>42037</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>0.23986230636833059</v>
       </c>
@@ -3637,8 +3893,11 @@
       <c r="N80">
         <v>0.25925925925925924</v>
       </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P80" s="1">
+        <v>42038</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>0.28468158347676431</v>
       </c>
@@ -3678,8 +3937,11 @@
       <c r="N81">
         <v>0.22222222222222221</v>
       </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P81" s="1">
+        <v>42039</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>0.38134251290877819</v>
       </c>
@@ -3719,8 +3981,11 @@
       <c r="N82">
         <v>0.31481481481481483</v>
       </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P82" s="1">
+        <v>42040</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>0.44293746414228347</v>
       </c>
@@ -3760,8 +4025,11 @@
       <c r="N83">
         <v>0.25925925925925924</v>
       </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P83" s="1">
+        <v>42041</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>0.28794033275960984</v>
       </c>
@@ -3801,8 +4069,11 @@
       <c r="N84">
         <v>0.24074074074074073</v>
       </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P84" s="1">
+        <v>42042</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>0.34561101549053358</v>
       </c>
@@ -3842,8 +4113,11 @@
       <c r="N85">
         <v>0.29629629629629628</v>
       </c>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P85" s="1">
+        <v>42043</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>0.26269650028686181</v>
       </c>
@@ -3883,8 +4157,11 @@
       <c r="N86">
         <v>0.24074074074074073</v>
       </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P86" s="1">
+        <v>42044</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>0.39776247848537</v>
       </c>
@@ -3924,8 +4201,11 @@
       <c r="N87">
         <v>0.25925925925925924</v>
       </c>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P87" s="1">
+        <v>42045</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>0.37349397590361466</v>
       </c>
@@ -3965,8 +4245,11 @@
       <c r="N88">
         <v>0.29629629629629628</v>
       </c>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P88" s="1">
+        <v>42046</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>0.33476764199655779</v>
       </c>
@@ -4006,8 +4289,11 @@
       <c r="N89">
         <v>0.27777777777777779</v>
       </c>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P89" s="1">
+        <v>42047</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>0.29399885255306935</v>
       </c>
@@ -4047,8 +4333,11 @@
       <c r="N90">
         <v>0.35185185185185186</v>
       </c>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P90" s="1">
+        <v>42048</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>0.35335628227194493</v>
       </c>
@@ -4088,8 +4377,11 @@
       <c r="N91">
         <v>0.27777777777777779</v>
       </c>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P91" s="1">
+        <v>42049</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>0.69994262765347115</v>
       </c>
@@ -4129,8 +4421,11 @@
       <c r="N92">
         <v>0.31481481481481483</v>
       </c>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P92" s="1">
+        <v>42050</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>-0.13453815261044169</v>
       </c>
@@ -4170,8 +4465,11 @@
       <c r="N93">
         <v>0.27777777777777779</v>
       </c>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P93" s="1">
+        <v>42051</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>-0.5067125645438898</v>
       </c>
@@ -4211,8 +4509,11 @@
       <c r="N94">
         <v>0.31481481481481483</v>
       </c>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P94" s="1">
+        <v>42052</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>-0.47401032702237517</v>
       </c>
@@ -4252,8 +4553,11 @@
       <c r="N95">
         <v>0.29629629629629628</v>
       </c>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P95" s="1">
+        <v>42053</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>-0.26416523235800332</v>
       </c>
@@ -4293,8 +4597,11 @@
       <c r="N96">
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P96" s="1">
+        <v>42054</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>-0.33482501434308654</v>
       </c>
@@ -4334,8 +4641,11 @@
       <c r="N97">
         <v>0.37037037037037035</v>
       </c>
-    </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P97" s="1">
+        <v>42055</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>-0.15542168674698786</v>
       </c>
@@ -4375,8 +4685,11 @@
       <c r="N98">
         <v>0.30555555555555558</v>
       </c>
-    </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P98" s="1">
+        <v>42056</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>-0.33321858864027531</v>
       </c>
@@ -4416,8 +4729,11 @@
       <c r="N99">
         <v>0.29629629629629628</v>
       </c>
-    </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P99" s="1">
+        <v>42057</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>-0.36247848537005162</v>
       </c>
@@ -4457,8 +4773,11 @@
       <c r="N100">
         <v>0.20370370370370369</v>
       </c>
-    </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P100" s="1">
+        <v>42058</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>-0.34113597246127364</v>
       </c>
@@ -4498,8 +4817,11 @@
       <c r="N101">
         <v>0.14814814814814814</v>
       </c>
-    </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P101" s="1">
+        <v>42059</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>-0.27562822719449215</v>
       </c>
@@ -4539,8 +4861,11 @@
       <c r="N102">
         <v>0.16666666666666666</v>
       </c>
-    </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P102" s="1">
+        <v>42060</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>-0.4974182444061962</v>
       </c>
@@ -4580,8 +4905,11 @@
       <c r="N103">
         <v>0.64814814814814814</v>
       </c>
-    </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P103" s="1">
+        <v>42061</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>-0.65806081468732081</v>
       </c>
@@ -4621,8 +4949,11 @@
       <c r="N104">
         <v>1.8518518518518517E-2</v>
       </c>
-    </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P104" s="1">
+        <v>42171</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>-0.65679862306368331</v>
       </c>
@@ -4662,8 +4993,11 @@
       <c r="N105">
         <v>0.29629629629629628</v>
       </c>
-    </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P105" s="1">
+        <v>42172</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>-0.4851979345955249</v>
       </c>
@@ -4703,8 +5037,11 @@
       <c r="N106">
         <v>0.29629629629629628</v>
       </c>
-    </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P106" s="1">
+        <v>42173</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>-0.66517498565691335</v>
       </c>
@@ -4744,8 +5081,11 @@
       <c r="N107">
         <v>0.29629629629629628</v>
       </c>
-    </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P107" s="1">
+        <v>42174</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>-0.43293172690763054</v>
       </c>
@@ -4785,8 +5125,11 @@
       <c r="N108">
         <v>0.31481481481481483</v>
       </c>
-    </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P108" s="1">
+        <v>42175</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>-0.37831325301204816</v>
       </c>
@@ -4826,8 +5169,11 @@
       <c r="N109">
         <v>0.27777777777777779</v>
       </c>
-    </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P109" s="1">
+        <v>42176</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>-0.36405048766494547</v>
       </c>
@@ -4867,8 +5213,11 @@
       <c r="N110">
         <v>0.29629629629629628</v>
       </c>
-    </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P110" s="1">
+        <v>42177</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>-0.35576592082616176</v>
       </c>
@@ -4908,8 +5257,11 @@
       <c r="N111">
         <v>0.24074074074074073</v>
       </c>
-    </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P111" s="1">
+        <v>42178</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>-0.12908777969018922</v>
       </c>
@@ -4949,8 +5301,11 @@
       <c r="N112">
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P112" s="1">
+        <v>42179</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>6.6781411359724721E-2</v>
       </c>
@@ -4990,8 +5345,11 @@
       <c r="N113">
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P113" s="1">
+        <v>42180</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>1.273666092943207E-2</v>
       </c>
@@ -5031,8 +5389,11 @@
       <c r="N114">
         <v>0.24074074074074073</v>
       </c>
-    </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P114" s="1">
+        <v>42181</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>-0.67596098680436012</v>
       </c>
@@ -5072,8 +5433,11 @@
       <c r="N115">
         <v>0.29629629629629628</v>
       </c>
-    </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P115" s="1">
+        <v>42182</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>-0.6923694779116466</v>
       </c>
@@ -5113,8 +5477,11 @@
       <c r="N116">
         <v>0.29629629629629628</v>
       </c>
-    </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P116" s="1">
+        <v>42183</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>-0.51954102122776824</v>
       </c>
@@ -5154,8 +5521,11 @@
       <c r="N117">
         <v>0.25925925925925924</v>
       </c>
-    </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P117" s="1">
+        <v>42184</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>-0.15174985656913367</v>
       </c>
@@ -5195,8 +5565,11 @@
       <c r="N118">
         <v>0.27777777777777779</v>
       </c>
-    </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P118" s="1">
+        <v>42185</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>0.12771084337349398</v>
       </c>
@@ -5236,8 +5609,11 @@
       <c r="N119">
         <v>0.1111111111111111</v>
       </c>
-    </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P119" s="1">
+        <v>42186</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>0.10722891566265068</v>
       </c>
@@ -5277,8 +5653,11 @@
       <c r="N120">
         <v>0.27777777777777779</v>
       </c>
-    </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P120" s="1">
+        <v>42187</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>0.10562248995983947</v>
       </c>
@@ -5318,8 +5697,11 @@
       <c r="N121">
         <v>0.16666666666666666</v>
       </c>
-    </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P121" s="1">
+        <v>42188</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>-0.12984509466437172</v>
       </c>
@@ -5359,8 +5741,11 @@
       <c r="N122">
         <v>0.18518518518518517</v>
       </c>
-    </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P122" s="1">
+        <v>42189</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>-3.7751004016064169E-2</v>
       </c>
@@ -5400,8 +5785,11 @@
       <c r="N123">
         <v>0.18518518518518517</v>
       </c>
-    </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P123" s="1">
+        <v>42190</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>-1.2449799196787098E-2</v>
       </c>
@@ -5441,8 +5829,11 @@
       <c r="N124">
         <v>0.22222222222222221</v>
       </c>
-    </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P124" s="1">
+        <v>42191</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>-0.12690763052208837</v>
       </c>
@@ -5482,8 +5873,11 @@
       <c r="N125">
         <v>0.20370370370370369</v>
       </c>
-    </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P125" s="1">
+        <v>42192</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>-0.24125071715433158</v>
       </c>
@@ -5523,8 +5917,11 @@
       <c r="N126">
         <v>0.22222222222222221</v>
       </c>
-    </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P126" s="1">
+        <v>42193</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>0.13762478485370061</v>
       </c>
@@ -5564,8 +5961,11 @@
       <c r="N127">
         <v>0.24074074074074073</v>
       </c>
-    </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P127" s="1">
+        <v>42194</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>7.9552495697074038E-2</v>
       </c>
@@ -5605,8 +6005,11 @@
       <c r="N128">
         <v>0.1111111111111111</v>
       </c>
-    </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P128" s="1">
+        <v>42195</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>0.100562248995984</v>
       </c>
@@ -5646,8 +6049,11 @@
       <c r="N129">
         <v>0.20370370370370369</v>
       </c>
-    </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P129" s="1">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>0.16649454962707982</v>
       </c>
@@ -5687,8 +6093,11 @@
       <c r="N130">
         <v>0.20370370370370369</v>
       </c>
-    </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P130" s="1">
+        <v>42197</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>8.8812392426850777E-3</v>
       </c>
@@ -5728,8 +6137,11 @@
       <c r="N131">
         <v>0.18518518518518517</v>
       </c>
-    </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P131" s="1">
+        <v>42198</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>1.8634538152610531E-2</v>
       </c>
@@ -5769,8 +6181,11 @@
       <c r="N132">
         <v>0.22222222222222221</v>
       </c>
-    </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P132" s="1">
+        <v>42199</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>-1.7762478485370013E-2</v>
       </c>
@@ -5810,8 +6225,11 @@
       <c r="N133">
         <v>0.12962962962962962</v>
       </c>
-    </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P133" s="1">
+        <v>42200</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>6.6230636833046558E-2</v>
       </c>
@@ -5851,8 +6269,11 @@
       <c r="N134">
         <v>0.18518518518518517</v>
       </c>
-    </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P134" s="1">
+        <v>42201</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>3.0636833046472764E-3</v>
       </c>
@@ -5892,8 +6313,11 @@
       <c r="N135">
         <v>0.29629629629629628</v>
       </c>
-    </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P135" s="1">
+        <v>42202</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>-2.0791738382099762E-2</v>
       </c>
@@ -5933,8 +6357,11 @@
       <c r="N136">
         <v>0.24074074074074073</v>
       </c>
-    </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P136" s="1">
+        <v>42203</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>-0.10705679862306361</v>
       </c>
@@ -5974,8 +6401,11 @@
       <c r="N137">
         <v>0.16666666666666666</v>
       </c>
-    </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P137" s="1">
+        <v>42204</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>-4.8835341365461749E-2</v>
       </c>
@@ -6015,8 +6445,11 @@
       <c r="N138">
         <v>0.25925925925925924</v>
       </c>
-    </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P138" s="1">
+        <v>42205</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>1.1222030981067124E-2</v>
       </c>
@@ -6056,8 +6489,11 @@
       <c r="N139">
         <v>0.22222222222222221</v>
       </c>
-    </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P139" s="1">
+        <v>42206</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>0.17871485943775112</v>
       </c>
@@ -6097,8 +6533,11 @@
       <c r="N140">
         <v>0.22222222222222221</v>
       </c>
-    </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P140" s="1">
+        <v>42207</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>5.0200803212851405E-2</v>
       </c>
@@ -6138,8 +6577,11 @@
       <c r="N141">
         <v>0.16666666666666666</v>
       </c>
-    </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P141" s="1">
+        <v>42208</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>0.10080321285140569</v>
       </c>
@@ -6179,8 +6621,11 @@
       <c r="N142">
         <v>0.18518518518518517</v>
       </c>
-    </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P142" s="1">
+        <v>42209</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>0.2040160642570282</v>
       </c>
@@ -6220,8 +6665,11 @@
       <c r="N143">
         <v>0.25925925925925924</v>
       </c>
-    </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P143" s="1">
+        <v>42210</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>6.3499713138267383E-2</v>
       </c>
@@ -6261,8 +6709,11 @@
       <c r="N144">
         <v>0.18518518518518517</v>
       </c>
-    </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P144" s="1">
+        <v>42211</v>
+      </c>
+    </row>
+    <row r="145" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>9.7051061388410853E-2</v>
       </c>
@@ -6302,8 +6753,11 @@
       <c r="N145">
         <v>0.14814814814814814</v>
       </c>
-    </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P145" s="1">
+        <v>42212</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>4.1686746987951821E-2</v>
       </c>
@@ -6343,8 +6797,11 @@
       <c r="N146">
         <v>0.18518518518518517</v>
       </c>
-    </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P146" s="1">
+        <v>42213</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>2.9213998852553085E-2</v>
       </c>
@@ -6384,8 +6841,11 @@
       <c r="N147">
         <v>0.20370370370370369</v>
       </c>
-    </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P147" s="1">
+        <v>42214</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>0.12931726907630534</v>
       </c>
@@ -6425,8 +6885,11 @@
       <c r="N148">
         <v>0.20370370370370369</v>
       </c>
-    </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P148" s="1">
+        <v>42215</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>0.10037865748709132</v>
       </c>
@@ -6466,8 +6929,11 @@
       <c r="N149">
         <v>0.22222222222222221</v>
       </c>
-    </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P149" s="1">
+        <v>42216</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>0.15185312679288585</v>
       </c>
@@ -6507,8 +6973,11 @@
       <c r="N150">
         <v>0.14814814814814814</v>
       </c>
-    </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P150" s="1">
+        <v>42217</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>6.5748709122203167E-2</v>
       </c>
@@ -6548,8 +7017,11 @@
       <c r="N151">
         <v>0.14814814814814814</v>
       </c>
-    </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P151" s="1">
+        <v>42218</v>
+      </c>
+    </row>
+    <row r="152" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>-0.12650602409638551</v>
       </c>
@@ -6589,8 +7061,11 @@
       <c r="N152">
         <v>0.1111111111111111</v>
       </c>
-    </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P152" s="1">
+        <v>42219</v>
+      </c>
+    </row>
+    <row r="153" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>-0.22489959839357423</v>
       </c>
@@ -6630,8 +7105,11 @@
       <c r="N153">
         <v>9.2592592592592587E-2</v>
       </c>
-    </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P153" s="1">
+        <v>42220</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>-0.16771084337349393</v>
       </c>
@@ -6671,8 +7149,11 @@
       <c r="N154">
         <v>9.2592592592592587E-2</v>
       </c>
-    </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P154" s="1">
+        <v>42221</v>
+      </c>
+    </row>
+    <row r="155" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>-0.14658634538152607</v>
       </c>
@@ -6712,8 +7193,11 @@
       <c r="N155">
         <v>0.24074074074074073</v>
       </c>
-    </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P155" s="1">
+        <v>42222</v>
+      </c>
+    </row>
+    <row r="156" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>0.15863453815261055</v>
       </c>
@@ -6753,8 +7237,11 @@
       <c r="N156">
         <v>0.22222222222222221</v>
       </c>
-    </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P156" s="1">
+        <v>42223</v>
+      </c>
+    </row>
+    <row r="157" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>-0.10728628800917955</v>
       </c>
@@ -6794,8 +7281,11 @@
       <c r="N157">
         <v>0.14814814814814814</v>
       </c>
-    </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P157" s="1">
+        <v>42226</v>
+      </c>
+    </row>
+    <row r="158" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>-0.70877796901893286</v>
       </c>
@@ -6835,8 +7325,11 @@
       <c r="N158">
         <v>0.14814814814814814</v>
       </c>
-    </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P158" s="1">
+        <v>42227</v>
+      </c>
+    </row>
+    <row r="159" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>-4.8995983935742927E-2</v>
       </c>
@@ -6876,8 +7369,11 @@
       <c r="N159">
         <v>7.407407407407407E-2</v>
       </c>
-    </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P159" s="1">
+        <v>42230</v>
+      </c>
+    </row>
+    <row r="160" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>-4.6345381526104415E-2</v>
       </c>
@@ -6917,8 +7413,11 @@
       <c r="N160">
         <v>0.12962962962962962</v>
       </c>
-    </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P160" s="1">
+        <v>42231</v>
+      </c>
+    </row>
+    <row r="161" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>0.10080321285140569</v>
       </c>
@@ -6958,8 +7457,11 @@
       <c r="N161">
         <v>0.18518518518518517</v>
       </c>
-    </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P161" s="1">
+        <v>42232</v>
+      </c>
+    </row>
+    <row r="162" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>8.9558232931726933E-2</v>
       </c>
@@ -6999,8 +7501,11 @@
       <c r="N162">
         <v>0.14814814814814814</v>
       </c>
-    </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P162" s="1">
+        <v>42233</v>
+      </c>
+    </row>
+    <row r="163" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>4.0963855421686873E-2</v>
       </c>
@@ -7040,8 +7545,11 @@
       <c r="N163">
         <v>0.12962962962962962</v>
       </c>
-    </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P163" s="1">
+        <v>42234</v>
+      </c>
+    </row>
+    <row r="164" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>0.20321285140562259</v>
       </c>
@@ -7081,8 +7589,11 @@
       <c r="N164">
         <v>0.20370370370370369</v>
       </c>
-    </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P164" s="1">
+        <v>42235</v>
+      </c>
+    </row>
+    <row r="165" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>0.206425702811245</v>
       </c>
@@ -7122,8 +7633,11 @@
       <c r="N165">
         <v>0.1111111111111111</v>
       </c>
-    </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P165" s="1">
+        <v>42236</v>
+      </c>
+    </row>
+    <row r="166" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>0.2190017211703959</v>
       </c>
@@ -7163,8 +7677,11 @@
       <c r="N166">
         <v>0.14814814814814814</v>
       </c>
-    </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P166" s="1">
+        <v>42237</v>
+      </c>
+    </row>
+    <row r="167" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>6.7125645438898568E-2</v>
       </c>
@@ -7204,8 +7721,11 @@
       <c r="N167">
         <v>0.14814814814814814</v>
       </c>
-    </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P167" s="1">
+        <v>42238</v>
+      </c>
+    </row>
+    <row r="168" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>0.14450946643717735</v>
       </c>
@@ -7242,11 +7762,14 @@
       <c r="M168">
         <v>0.74013474494706444</v>
       </c>
-      <c r="N168">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N168" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="P168" s="1">
+        <v>42239</v>
+      </c>
+    </row>
+    <row r="169" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>0.24859437751004024</v>
       </c>
@@ -7286,8 +7809,11 @@
       <c r="N169">
         <v>5.5555555555555552E-2</v>
       </c>
-    </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P169" s="1">
+        <v>42241</v>
+      </c>
+    </row>
+    <row r="170" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>0.39666092943201398</v>
       </c>
@@ -7327,8 +7853,11 @@
       <c r="N170">
         <v>0.24074074074074073</v>
       </c>
-    </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P170" s="1">
+        <v>42242</v>
+      </c>
+    </row>
+    <row r="171" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>0.30083763625932308</v>
       </c>
@@ -7368,8 +7897,11 @@
       <c r="N171">
         <v>0.22222222222222221</v>
       </c>
-    </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P171" s="1">
+        <v>42243</v>
+      </c>
+    </row>
+    <row r="172" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>0.23924268502581764</v>
       </c>
@@ -7409,8 +7941,11 @@
       <c r="N172">
         <v>0.12962962962962962</v>
       </c>
-    </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P172" s="1">
+        <v>42244</v>
+      </c>
+    </row>
+    <row r="173" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>0.27108433734939763</v>
       </c>
@@ -7450,8 +7985,11 @@
       <c r="N173">
         <v>7.407407407407407E-2</v>
       </c>
-    </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P173" s="1">
+        <v>42245</v>
+      </c>
+    </row>
+    <row r="174" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>0.18099827882960415</v>
       </c>
@@ -7491,8 +8029,11 @@
       <c r="N174">
         <v>0.18518518518518517</v>
       </c>
-    </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P174" s="1">
+        <v>42246</v>
+      </c>
+    </row>
+    <row r="175" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>0.35903614457831345</v>
       </c>
@@ -7532,8 +8073,11 @@
       <c r="N175">
         <v>0.22222222222222221</v>
       </c>
-    </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P175" s="1">
+        <v>42247</v>
+      </c>
+    </row>
+    <row r="176" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>0.38258175559380375</v>
       </c>
@@ -7573,8 +8117,11 @@
       <c r="N176">
         <v>0.20370370370370369</v>
       </c>
-    </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P176" s="1">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="177" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>0.32588640275387271</v>
       </c>
@@ -7614,8 +8161,11 @@
       <c r="N177">
         <v>0.14814814814814814</v>
       </c>
-    </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P177" s="1">
+        <v>42249</v>
+      </c>
+    </row>
+    <row r="178" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>0.31909351692484228</v>
       </c>
@@ -7655,8 +8205,11 @@
       <c r="N178">
         <v>0.16666666666666666</v>
       </c>
-    </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P178" s="1">
+        <v>42250</v>
+      </c>
+    </row>
+    <row r="179" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>0.29170395869191046</v>
       </c>
@@ -7696,8 +8249,11 @@
       <c r="N179">
         <v>0.22222222222222221</v>
       </c>
-    </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P179" s="1">
+        <v>42251</v>
+      </c>
+    </row>
+    <row r="180" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>4.3602983362019496E-2</v>
       </c>
@@ -7737,8 +8293,11 @@
       <c r="N180">
         <v>0.12962962962962962</v>
       </c>
-    </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P180" s="1">
+        <v>42252</v>
+      </c>
+    </row>
+    <row r="181" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>0.12192771084337356</v>
       </c>
@@ -7778,8 +8337,11 @@
       <c r="N181">
         <v>0.20370370370370369</v>
       </c>
-    </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P181" s="1">
+        <v>42253</v>
+      </c>
+    </row>
+    <row r="182" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>0.15910499139414808</v>
       </c>
@@ -7819,8 +8381,11 @@
       <c r="N182">
         <v>0.18518518518518517</v>
       </c>
-    </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P182" s="1">
+        <v>42254</v>
+      </c>
+    </row>
+    <row r="183" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>9.6316695352840015E-2</v>
       </c>
@@ -7860,8 +8425,11 @@
       <c r="N183">
         <v>0.16666666666666666</v>
       </c>
-    </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P183" s="1">
+        <v>42255</v>
+      </c>
+    </row>
+    <row r="184" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>0.15988525530694217</v>
       </c>
@@ -7901,8 +8469,11 @@
       <c r="N184">
         <v>0.16666666666666666</v>
       </c>
-    </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P184" s="1">
+        <v>42256</v>
+      </c>
+    </row>
+    <row r="185" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>0.29446930579460712</v>
       </c>
@@ -7942,8 +8513,11 @@
       <c r="N185">
         <v>0.18518518518518517</v>
       </c>
-    </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P185" s="1">
+        <v>42257</v>
+      </c>
+    </row>
+    <row r="186" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>0.37877223178428016</v>
       </c>
@@ -7983,8 +8557,11 @@
       <c r="N186">
         <v>0.29629629629629628</v>
       </c>
-    </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P186" s="1">
+        <v>42258</v>
+      </c>
+    </row>
+    <row r="187" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>0.29569707401032713</v>
       </c>
@@ -8024,8 +8601,11 @@
       <c r="N187">
         <v>0.40740740740740738</v>
       </c>
-    </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P187" s="1">
+        <v>42259</v>
+      </c>
+    </row>
+    <row r="188" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>0.28925989672977637</v>
       </c>
@@ -8065,8 +8645,11 @@
       <c r="N188">
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P188" s="1">
+        <v>42260</v>
+      </c>
+    </row>
+    <row r="189" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>0.2523235800344234</v>
       </c>
@@ -8106,8 +8689,11 @@
       <c r="N189">
         <v>0.16666666666666666</v>
       </c>
-    </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P189" s="1">
+        <v>42261</v>
+      </c>
+    </row>
+    <row r="190" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>0.30808950086058517</v>
       </c>
@@ -8147,8 +8733,11 @@
       <c r="N190">
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P190" s="1">
+        <v>42262</v>
+      </c>
+    </row>
+    <row r="191" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>0.25456110154905348</v>
       </c>
@@ -8188,8 +8777,11 @@
       <c r="N191">
         <v>0.29629629629629628</v>
       </c>
-    </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P191" s="1">
+        <v>42263</v>
+      </c>
+    </row>
+    <row r="192" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>0.2523235800344234</v>
       </c>
@@ -8229,8 +8821,11 @@
       <c r="N192">
         <v>0.24074074074074073</v>
       </c>
-    </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P192" s="1">
+        <v>42264</v>
+      </c>
+    </row>
+    <row r="193" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>0.29108433734939781</v>
       </c>
@@ -8270,8 +8865,11 @@
       <c r="N193">
         <v>0.14814814814814814</v>
       </c>
-    </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P193" s="1">
+        <v>42265</v>
+      </c>
+    </row>
+    <row r="194" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>0.29675272518646018</v>
       </c>
@@ -8311,8 +8909,11 @@
       <c r="N194">
         <v>0.18518518518518517</v>
       </c>
-    </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P194" s="1">
+        <v>42266</v>
+      </c>
+    </row>
+    <row r="195" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>0.24943201376936322</v>
       </c>
@@ -8352,8 +8953,11 @@
       <c r="N195">
         <v>0.27777777777777779</v>
       </c>
-    </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P195" s="1">
+        <v>42267</v>
+      </c>
+    </row>
+    <row r="196" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>0.25969018932874355</v>
       </c>
@@ -8393,8 +8997,11 @@
       <c r="N196">
         <v>0.27777777777777779</v>
       </c>
-    </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P196" s="1">
+        <v>42268</v>
+      </c>
+    </row>
+    <row r="197" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>8.8984509466437267E-2</v>
       </c>
@@ -8434,8 +9041,11 @@
       <c r="N197">
         <v>0.25925925925925924</v>
       </c>
-    </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P197" s="1">
+        <v>42269</v>
+      </c>
+    </row>
+    <row r="198" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>0.16030981067125655</v>
       </c>
@@ -8475,8 +9085,11 @@
       <c r="N198">
         <v>7.407407407407407E-2</v>
       </c>
-    </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P198" s="1">
+        <v>42270</v>
+      </c>
+    </row>
+    <row r="199" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>0.39024670109007475</v>
       </c>
@@ -8516,8 +9129,11 @@
       <c r="N199">
         <v>0.1111111111111111</v>
       </c>
-    </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P199" s="1">
+        <v>42271</v>
+      </c>
+    </row>
+    <row r="200" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>0.30447504302926004</v>
       </c>
@@ -8557,8 +9173,11 @@
       <c r="N200">
         <v>0.25925925925925924</v>
       </c>
-    </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P200" s="1">
+        <v>42272</v>
+      </c>
+    </row>
+    <row r="201" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>0.29283993115318413</v>
       </c>
@@ -8598,8 +9217,11 @@
       <c r="N201">
         <v>0.14814814814814814</v>
       </c>
-    </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P201" s="1">
+        <v>42273</v>
+      </c>
+    </row>
+    <row r="202" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>0.46368330464716023</v>
       </c>
@@ -8639,8 +9261,11 @@
       <c r="N202">
         <v>0.16666666666666666</v>
       </c>
-    </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P202" s="1">
+        <v>42274</v>
+      </c>
+    </row>
+    <row r="203" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>0.37647733792312127</v>
       </c>
@@ -8680,8 +9305,11 @@
       <c r="N203">
         <v>0.22222222222222221</v>
       </c>
-    </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P203" s="1">
+        <v>42275</v>
+      </c>
+    </row>
+    <row r="204" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>0.42888123924268506</v>
       </c>
@@ -8721,8 +9349,11 @@
       <c r="N204">
         <v>0.25925925925925924</v>
       </c>
-    </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P204" s="1">
+        <v>42276</v>
+      </c>
+    </row>
+    <row r="205" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>0.23290877796901907</v>
       </c>
@@ -8762,8 +9393,11 @@
       <c r="N205">
         <v>0.25925925925925924</v>
       </c>
-    </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P205" s="1">
+        <v>42277</v>
+      </c>
+    </row>
+    <row r="206" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>0.42128514056224908</v>
       </c>
@@ -8803,8 +9437,11 @@
       <c r="N206">
         <v>0.14814814814814814</v>
       </c>
-    </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P206" s="1">
+        <v>42278</v>
+      </c>
+    </row>
+    <row r="207" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>-1.2943201376936237E-2</v>
       </c>
@@ -8844,8 +9481,11 @@
       <c r="N207">
         <v>0.14814814814814814</v>
       </c>
-    </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P207" s="1">
+        <v>42279</v>
+      </c>
+    </row>
+    <row r="208" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>0.23975903614457841</v>
       </c>
@@ -8885,8 +9525,11 @@
       <c r="N208">
         <v>0.25925925925925924</v>
       </c>
-    </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P208" s="1">
+        <v>42280</v>
+      </c>
+    </row>
+    <row r="209" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>6.3889845094664374E-2</v>
       </c>
@@ -8926,8 +9569,11 @@
       <c r="N209">
         <v>0.20370370370370369</v>
       </c>
-    </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P209" s="1">
+        <v>42281</v>
+      </c>
+    </row>
+    <row r="210" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>0.1772805507745267</v>
       </c>
@@ -8967,8 +9613,11 @@
       <c r="N210">
         <v>0.29629629629629628</v>
       </c>
-    </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P210" s="1">
+        <v>42282</v>
+      </c>
+    </row>
+    <row r="211" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>0.20247848537005175</v>
       </c>
@@ -9008,8 +9657,11 @@
       <c r="N211">
         <v>0.1111111111111111</v>
       </c>
-    </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P211" s="1">
+        <v>42283</v>
+      </c>
+    </row>
+    <row r="212" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>7.6706827309236961E-2</v>
       </c>
@@ -9049,8 +9701,11 @@
       <c r="N212">
         <v>0.18518518518518517</v>
       </c>
-    </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P212" s="1">
+        <v>42284</v>
+      </c>
+    </row>
+    <row r="213" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>0.20082616179001728</v>
       </c>
@@ -9090,8 +9745,11 @@
       <c r="N213">
         <v>0.37037037037037035</v>
       </c>
-    </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P213" s="1">
+        <v>42285</v>
+      </c>
+    </row>
+    <row r="214" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>0.21445783132530122</v>
       </c>
@@ -9131,8 +9789,11 @@
       <c r="N214">
         <v>0.18518518518518517</v>
       </c>
-    </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P214" s="1">
+        <v>42286</v>
+      </c>
+    </row>
+    <row r="215" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>0.154974182444062</v>
       </c>
@@ -9172,8 +9833,11 @@
       <c r="N215">
         <v>0.29629629629629628</v>
       </c>
-    </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P215" s="1">
+        <v>42287</v>
+      </c>
+    </row>
+    <row r="216" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>0.13483648881239255</v>
       </c>
@@ -9213,8 +9877,11 @@
       <c r="N216">
         <v>0.25925925925925924</v>
       </c>
-    </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P216" s="1">
+        <v>42288</v>
+      </c>
+    </row>
+    <row r="217" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>0.22526678141135986</v>
       </c>
@@ -9254,8 +9921,11 @@
       <c r="N217">
         <v>0.37037037037037035</v>
       </c>
-    </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P217" s="1">
+        <v>42289</v>
+      </c>
+    </row>
+    <row r="218" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>0.1080895008605853</v>
       </c>
@@ -9295,8 +9965,11 @@
       <c r="N218">
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P218" s="1">
+        <v>42290</v>
+      </c>
+    </row>
+    <row r="219" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>5.8519793459552577E-2</v>
       </c>
@@ -9336,8 +10009,11 @@
       <c r="N219">
         <v>9.2592592592592587E-2</v>
       </c>
-    </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P219" s="1">
+        <v>42291</v>
+      </c>
+    </row>
+    <row r="220" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>0.33555938037865768</v>
       </c>
@@ -9377,8 +10053,11 @@
       <c r="N220">
         <v>0.25925925925925924</v>
       </c>
-    </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P220" s="1">
+        <v>42292</v>
+      </c>
+    </row>
+    <row r="221" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>0.19002868617326452</v>
       </c>
@@ -9418,8 +10097,11 @@
       <c r="N221">
         <v>0.18518518518518517</v>
       </c>
-    </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P221" s="1">
+        <v>42293</v>
+      </c>
+    </row>
+    <row r="222" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>0.17149741824440629</v>
       </c>
@@ -9459,8 +10141,11 @@
       <c r="N222">
         <v>0.18518518518518517</v>
       </c>
-    </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P222" s="1">
+        <v>42294</v>
+      </c>
+    </row>
+    <row r="223" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>0.20481927710843381</v>
       </c>
@@ -9500,8 +10185,11 @@
       <c r="N223">
         <v>0.24074074074074073</v>
       </c>
-    </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P223" s="1">
+        <v>42295</v>
+      </c>
+    </row>
+    <row r="224" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>-0.12353413654618463</v>
       </c>
@@ -9541,8 +10229,11 @@
       <c r="N224">
         <v>0.1111111111111111</v>
       </c>
-    </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P224" s="1">
+        <v>42296</v>
+      </c>
+    </row>
+    <row r="225" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>-0.3544004589787722</v>
       </c>
@@ -9582,8 +10273,11 @@
       <c r="N225">
         <v>9.2592592592592587E-2</v>
       </c>
-    </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P225" s="1">
+        <v>42297</v>
+      </c>
+    </row>
+    <row r="226" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>0.32570281124497991</v>
       </c>
@@ -9623,8 +10317,11 @@
       <c r="N226">
         <v>0.37037037037037035</v>
       </c>
-    </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P226" s="1">
+        <v>42317</v>
+      </c>
+    </row>
+    <row r="227" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>0.40034423407917391</v>
       </c>
@@ -9664,8 +10361,11 @@
       <c r="N227">
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P227" s="1">
+        <v>42318</v>
+      </c>
+    </row>
+    <row r="228" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>-0.43390705679862307</v>
       </c>
@@ -9705,8 +10405,11 @@
       <c r="N228">
         <v>0.40740740740740738</v>
       </c>
-    </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P228" s="1">
+        <v>42319</v>
+      </c>
+    </row>
+    <row r="229" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>-0.3378313253012048</v>
       </c>
@@ -9746,8 +10449,11 @@
       <c r="N229">
         <v>0.25925925925925924</v>
       </c>
-    </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P229" s="1">
+        <v>42320</v>
+      </c>
+    </row>
+    <row r="230" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>-0.15373493975903613</v>
       </c>
@@ -9787,8 +10493,11 @@
       <c r="N230">
         <v>0.25925925925925924</v>
       </c>
-    </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P230" s="1">
+        <v>42321</v>
+      </c>
+    </row>
+    <row r="231" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>-0.39169248422260461</v>
       </c>
@@ -9828,8 +10537,11 @@
       <c r="N231">
         <v>0.22222222222222221</v>
       </c>
-    </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P231" s="1">
+        <v>42322</v>
+      </c>
+    </row>
+    <row r="232" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>-0.21418244406196213</v>
       </c>
@@ -9869,8 +10581,11 @@
       <c r="N232">
         <v>0.29629629629629628</v>
       </c>
-    </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P232" s="1">
+        <v>42323</v>
+      </c>
+    </row>
+    <row r="233" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>-5.5077452667801931E-4</v>
       </c>
@@ -9910,8 +10625,11 @@
       <c r="N233">
         <v>0.37037037037037035</v>
       </c>
-    </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P233" s="1">
+        <v>42324</v>
+      </c>
+    </row>
+    <row r="234" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>0.22154905335628242</v>
       </c>
@@ -9951,8 +10669,11 @@
       <c r="N234">
         <v>0.77777777777777779</v>
       </c>
-    </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P234" s="1">
+        <v>42325</v>
+      </c>
+    </row>
+    <row r="235" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>-9.0074584050487558E-2</v>
       </c>
@@ -9992,8 +10713,11 @@
       <c r="N235">
         <v>0.48148148148148145</v>
       </c>
-    </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P235" s="1">
+        <v>42326</v>
+      </c>
+    </row>
+    <row r="236" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>-0.43086632243258749</v>
       </c>
@@ -10033,8 +10757,11 @@
       <c r="N236">
         <v>0.40740740740740738</v>
       </c>
-    </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P236" s="1">
+        <v>42327</v>
+      </c>
+    </row>
+    <row r="237" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>-0.14189328743545607</v>
       </c>
@@ -10074,8 +10801,11 @@
       <c r="N237">
         <v>0.27777777777777779</v>
       </c>
-    </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P237" s="1">
+        <v>42328</v>
+      </c>
+    </row>
+    <row r="238" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>-0.12885829030407342</v>
       </c>
@@ -10115,8 +10845,11 @@
       <c r="N238">
         <v>0.31481481481481483</v>
       </c>
-    </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P238" s="1">
+        <v>42329</v>
+      </c>
+    </row>
+    <row r="239" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>-0.2719678714859437</v>
       </c>
@@ -10156,8 +10889,11 @@
       <c r="N239">
         <v>0.42592592592592593</v>
       </c>
-    </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P239" s="1">
+        <v>42330</v>
+      </c>
+    </row>
+    <row r="240" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>-7.1715433161216258E-2</v>
       </c>
@@ -10197,8 +10933,11 @@
       <c r="N240">
         <v>0.37037037037037035</v>
       </c>
-    </row>
-    <row r="241" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P240" s="1">
+        <v>42331</v>
+      </c>
+    </row>
+    <row r="241" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>5.014343086632253E-2</v>
       </c>
@@ -10238,8 +10977,11 @@
       <c r="N241">
         <v>0.68518518518518523</v>
       </c>
-    </row>
-    <row r="242" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P241" s="1">
+        <v>42332</v>
+      </c>
+    </row>
+    <row r="242" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>-0.17567412507171534</v>
       </c>
@@ -10279,8 +11021,11 @@
       <c r="N242">
         <v>0.44444444444444442</v>
       </c>
-    </row>
-    <row r="243" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P242" s="1">
+        <v>42333</v>
+      </c>
+    </row>
+    <row r="243" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>-0.16282271944922538</v>
       </c>
@@ -10320,8 +11065,11 @@
       <c r="N243">
         <v>0.46296296296296297</v>
       </c>
-    </row>
-    <row r="244" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P243" s="1">
+        <v>42334</v>
+      </c>
+    </row>
+    <row r="244" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>-0.3482501434308663</v>
       </c>
@@ -10361,8 +11109,11 @@
       <c r="N244">
         <v>0.51851851851851849</v>
       </c>
-    </row>
-    <row r="245" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P244" s="1">
+        <v>42336</v>
+      </c>
+    </row>
+    <row r="245" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>-0.13987378083763624</v>
       </c>
@@ -10402,8 +11153,11 @@
       <c r="N245">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="246" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P245" s="1">
+        <v>42337</v>
+      </c>
+    </row>
+    <row r="246" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>-0.18852553069420533</v>
       </c>
@@ -10443,8 +11197,11 @@
       <c r="N246">
         <v>0.57407407407407407</v>
       </c>
-    </row>
-    <row r="247" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P246" s="1">
+        <v>42338</v>
+      </c>
+    </row>
+    <row r="247" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>-0.30602409638554207</v>
       </c>
@@ -10484,8 +11241,11 @@
       <c r="N247">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="248" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P247" s="1">
+        <v>42339</v>
+      </c>
+    </row>
+    <row r="248" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>-0.12292598967297758</v>
       </c>
@@ -10525,8 +11285,11 @@
       <c r="N248">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="249" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P248" s="1">
+        <v>42341</v>
+      </c>
+    </row>
+    <row r="249" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>-0.24016064257028102</v>
       </c>
@@ -10566,8 +11329,11 @@
       <c r="N249">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="250" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P249" s="1">
+        <v>42342</v>
+      </c>
+    </row>
+    <row r="250" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>-0.32162937464142288</v>
       </c>
@@ -10607,8 +11373,11 @@
       <c r="N250">
         <v>0.51851851851851849</v>
       </c>
-    </row>
-    <row r="251" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P250" s="1">
+        <v>42343</v>
+      </c>
+    </row>
+    <row r="251" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>-6.8502581755593692E-2</v>
       </c>
@@ -10648,8 +11417,11 @@
       <c r="N251">
         <v>0.46296296296296297</v>
       </c>
-    </row>
-    <row r="252" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P251" s="1">
+        <v>42344</v>
+      </c>
+    </row>
+    <row r="252" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>-0.39718875502008028</v>
       </c>
@@ -10689,8 +11461,11 @@
       <c r="N252">
         <v>0.35185185185185186</v>
       </c>
-    </row>
-    <row r="253" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P252" s="1">
+        <v>42345</v>
+      </c>
+    </row>
+    <row r="253" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>-0.26877796901893281</v>
       </c>
@@ -10730,8 +11505,11 @@
       <c r="N253">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="254" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P253" s="1">
+        <v>42346</v>
+      </c>
+    </row>
+    <row r="254" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>-0.23580034423407914</v>
       </c>
@@ -10771,8 +11549,11 @@
       <c r="N254">
         <v>0.35185185185185186</v>
       </c>
-    </row>
-    <row r="255" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P254" s="1">
+        <v>42347</v>
+      </c>
+    </row>
+    <row r="255" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>-8.8697647733792295E-2</v>
       </c>
@@ -10812,8 +11593,11 @@
       <c r="N255">
         <v>0.46296296296296297</v>
       </c>
-    </row>
-    <row r="256" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P255" s="1">
+        <v>42348</v>
+      </c>
+    </row>
+    <row r="256" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>-0.24383247274813533</v>
       </c>
@@ -10853,8 +11637,11 @@
       <c r="N256">
         <v>0.3888888888888889</v>
       </c>
-    </row>
-    <row r="257" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P256" s="1">
+        <v>42349</v>
+      </c>
+    </row>
+    <row r="257" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>-0.32392426850258177</v>
       </c>
@@ -10894,8 +11681,11 @@
       <c r="N257">
         <v>0.3888888888888889</v>
       </c>
-    </row>
-    <row r="258" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P257" s="1">
+        <v>42350</v>
+      </c>
+    </row>
+    <row r="258" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>-0.47309236947791167</v>
       </c>
@@ -10935,8 +11725,11 @@
       <c r="N258">
         <v>0.37037037037037035</v>
       </c>
-    </row>
-    <row r="259" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P258" s="1">
+        <v>42351</v>
+      </c>
+    </row>
+    <row r="259" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>-0.22488812392426849</v>
       </c>
@@ -10976,8 +11769,11 @@
       <c r="N259">
         <v>0.48148148148148145</v>
       </c>
-    </row>
-    <row r="260" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P259" s="1">
+        <v>42352</v>
+      </c>
+    </row>
+    <row r="260" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>-5.7624784853700421E-2</v>
       </c>
@@ -11017,8 +11813,11 @@
       <c r="N260">
         <v>0.55555555555555558</v>
       </c>
-    </row>
-    <row r="261" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P260" s="1">
+        <v>42353</v>
+      </c>
+    </row>
+    <row r="261" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>-4.9053356282271955E-2</v>
       </c>
@@ -11058,8 +11857,11 @@
       <c r="N261">
         <v>0.59259259259259256</v>
       </c>
-    </row>
-    <row r="262" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P261" s="1">
+        <v>42354</v>
+      </c>
+    </row>
+    <row r="262" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>-0.21670682730923685</v>
       </c>
@@ -11099,8 +11901,11 @@
       <c r="N262">
         <v>1</v>
       </c>
-    </row>
-    <row r="263" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P262" s="1">
+        <v>42355</v>
+      </c>
+    </row>
+    <row r="263" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>-0.11242685025817555</v>
       </c>
@@ -11140,8 +11945,11 @@
       <c r="N263">
         <v>0.70370370370370372</v>
       </c>
-    </row>
-    <row r="264" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P263" s="1">
+        <v>42356</v>
+      </c>
+    </row>
+    <row r="264" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>-0.29863453815261043</v>
       </c>
@@ -11181,8 +11989,11 @@
       <c r="N264">
         <v>0.32777777777777778</v>
       </c>
-    </row>
-    <row r="265" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P264" s="1">
+        <v>42357</v>
+      </c>
+    </row>
+    <row r="265" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>-0.13234652897303492</v>
       </c>
@@ -11222,8 +12033,11 @@
       <c r="N265">
         <v>0.70370370370370372</v>
       </c>
-    </row>
-    <row r="266" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P265" s="1">
+        <v>42358</v>
+      </c>
+    </row>
+    <row r="266" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>-0.18081468732071135</v>
       </c>
@@ -11263,8 +12077,11 @@
       <c r="N266">
         <v>0.68518518518518523</v>
       </c>
-    </row>
-    <row r="267" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P266" s="1">
+        <v>42359</v>
+      </c>
+    </row>
+    <row r="267" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>-4.8192771084337324E-2</v>
       </c>
@@ -11304,8 +12121,11 @@
       <c r="N267">
         <v>0.42592592592592593</v>
       </c>
-    </row>
-    <row r="268" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P267" s="1">
+        <v>42360</v>
+      </c>
+    </row>
+    <row r="268" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>-0.37666092943201374</v>
       </c>
@@ -11345,8 +12165,11 @@
       <c r="N268">
         <v>0.31481481481481483</v>
       </c>
-    </row>
-    <row r="269" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P268" s="1">
+        <v>42361</v>
+      </c>
+    </row>
+    <row r="269" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>-0.32658634538152603</v>
       </c>
@@ -11386,8 +12209,11 @@
       <c r="N269">
         <v>0.25925925925925924</v>
       </c>
-    </row>
-    <row r="270" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P269" s="1">
+        <v>42362</v>
+      </c>
+    </row>
+    <row r="270" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>-6.1962134251290803E-2</v>
       </c>
@@ -11427,8 +12253,11 @@
       <c r="N270">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="271" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P270" s="1">
+        <v>42363</v>
+      </c>
+    </row>
+    <row r="271" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>2.1135972461273755E-2</v>
       </c>
@@ -11468,8 +12297,11 @@
       <c r="N271">
         <v>0.44444444444444442</v>
       </c>
-    </row>
-    <row r="272" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P271" s="1">
+        <v>42364</v>
+      </c>
+    </row>
+    <row r="272" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>-4.6540447504302834E-2</v>
       </c>
@@ -11509,8 +12341,11 @@
       <c r="N272">
         <v>0.31481481481481483</v>
       </c>
-    </row>
-    <row r="273" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P272" s="1">
+        <v>42365</v>
+      </c>
+    </row>
+    <row r="273" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>3.0705679862306393E-2</v>
       </c>
@@ -11550,8 +12385,11 @@
       <c r="N273">
         <v>0.62962962962962965</v>
       </c>
-    </row>
-    <row r="274" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P273" s="1">
+        <v>42366</v>
+      </c>
+    </row>
+    <row r="274" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>0.12865174985656927</v>
       </c>
@@ -11591,8 +12429,11 @@
       <c r="N274">
         <v>0.85185185185185186</v>
       </c>
-    </row>
-    <row r="275" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P274" s="1">
+        <v>42367</v>
+      </c>
+    </row>
+    <row r="275" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>-0.17617900172117038</v>
       </c>
@@ -11632,8 +12473,11 @@
       <c r="N275">
         <v>0.44444444444444442</v>
       </c>
-    </row>
-    <row r="276" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P275" s="1">
+        <v>42368</v>
+      </c>
+    </row>
+    <row r="276" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>2.4796328169822184E-2</v>
       </c>
@@ -11673,8 +12517,11 @@
       <c r="N276">
         <v>0.22222222222222221</v>
       </c>
-    </row>
-    <row r="277" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P276" s="1">
+        <v>42369</v>
+      </c>
+    </row>
+    <row r="277" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>-5.3413654618473833E-2</v>
       </c>
@@ -11714,8 +12561,11 @@
       <c r="N277">
         <v>0.46296296296296297</v>
       </c>
-    </row>
-    <row r="278" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P277" s="1">
+        <v>42370</v>
+      </c>
+    </row>
+    <row r="278" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>-4.5989672977624678E-2</v>
       </c>
@@ -11755,8 +12605,11 @@
       <c r="N278">
         <v>0.51851851851851849</v>
       </c>
-    </row>
-    <row r="279" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P278" s="1">
+        <v>42371</v>
+      </c>
+    </row>
+    <row r="279" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>0.22208835341365468</v>
       </c>
@@ -11796,8 +12649,11 @@
       <c r="N279">
         <v>0.42592592592592593</v>
       </c>
-    </row>
-    <row r="280" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P279" s="1">
+        <v>42372</v>
+      </c>
+    </row>
+    <row r="280" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>0.19375788869764785</v>
       </c>
@@ -11837,8 +12693,11 @@
       <c r="N280">
         <v>0.3888888888888889</v>
       </c>
-    </row>
-    <row r="281" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P280" s="1">
+        <v>42373</v>
+      </c>
+    </row>
+    <row r="281" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>0.22639127940332768</v>
       </c>
@@ -11878,8 +12737,11 @@
       <c r="N281">
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="282" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P281" s="1">
+        <v>42374</v>
+      </c>
+    </row>
+    <row r="282" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>0.28950086058519808</v>
       </c>
@@ -11919,8 +12781,11 @@
       <c r="N282">
         <v>0.51851851851851849</v>
       </c>
-    </row>
-    <row r="283" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P282" s="1">
+        <v>42375</v>
+      </c>
+    </row>
+    <row r="283" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>0.11738382099827886</v>
       </c>
@@ -11960,8 +12825,11 @@
       <c r="N283">
         <v>0.57407407407407407</v>
       </c>
-    </row>
-    <row r="284" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P283" s="1">
+        <v>42376</v>
+      </c>
+    </row>
+    <row r="284" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>-0.34146873207114176</v>
       </c>
@@ -12001,8 +12869,11 @@
       <c r="N284">
         <v>0.24074074074074073</v>
       </c>
-    </row>
-    <row r="285" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P284" s="1">
+        <v>42377</v>
+      </c>
+    </row>
+    <row r="285" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>-0.21413654618473885</v>
       </c>
@@ -12042,8 +12913,11 @@
       <c r="N285">
         <v>0.35185185185185186</v>
       </c>
-    </row>
-    <row r="286" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P285" s="1">
+        <v>42378</v>
+      </c>
+    </row>
+    <row r="286" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>9.6385542168674787E-2</v>
       </c>
@@ -12083,8 +12957,11 @@
       <c r="N286">
         <v>0.61111111111111116</v>
       </c>
-    </row>
-    <row r="287" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P286" s="1">
+        <v>42379</v>
+      </c>
+    </row>
+    <row r="287" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>3.0361445783132542E-2</v>
       </c>
@@ -12124,8 +13001,11 @@
       <c r="N287">
         <v>0.46296296296296297</v>
       </c>
-    </row>
-    <row r="288" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P287" s="1">
+        <v>42380</v>
+      </c>
+    </row>
+    <row r="288" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>-3.9655765920826098E-2</v>
       </c>
@@ -12165,8 +13045,11 @@
       <c r="N288">
         <v>0.46296296296296297</v>
       </c>
-    </row>
-    <row r="289" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P288" s="1">
+        <v>42381</v>
+      </c>
+    </row>
+    <row r="289" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>9.8450946643717757E-2</v>
       </c>
@@ -12206,8 +13089,11 @@
       <c r="N289">
         <v>0.83333333333333337</v>
       </c>
-    </row>
-    <row r="290" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P289" s="1">
+        <v>42382</v>
+      </c>
+    </row>
+    <row r="290" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>3.6833046471600801E-2</v>
       </c>
@@ -12247,8 +13133,11 @@
       <c r="N290">
         <v>0.68518518518518523</v>
       </c>
-    </row>
-    <row r="291" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P290" s="1">
+        <v>42383</v>
+      </c>
+    </row>
+    <row r="291" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>-0.10017211703958687</v>
       </c>
@@ -12288,8 +13177,11 @@
       <c r="N291">
         <v>0.46296296296296297</v>
       </c>
-    </row>
-    <row r="292" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P291" s="1">
+        <v>42384</v>
+      </c>
+    </row>
+    <row r="292" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>-3.8554216867469772E-2</v>
       </c>
@@ -12329,8 +13221,11 @@
       <c r="N292">
         <v>0.25925925925925924</v>
       </c>
-    </row>
-    <row r="293" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P292" s="1">
+        <v>42385</v>
+      </c>
+    </row>
+    <row r="293" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>1.8588640275387255E-2</v>
       </c>
@@ -12370,8 +13265,11 @@
       <c r="N293">
         <v>0.3888888888888889</v>
       </c>
-    </row>
-    <row r="294" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P293" s="1">
+        <v>42386</v>
+      </c>
+    </row>
+    <row r="294" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>-2.5358577165806091E-2</v>
       </c>
@@ -12411,8 +13309,11 @@
       <c r="N294">
         <v>0.40740740740740738</v>
       </c>
-    </row>
-    <row r="295" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P294" s="1">
+        <v>42387</v>
+      </c>
+    </row>
+    <row r="295" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>-0.14492254733218582</v>
       </c>
@@ -12452,8 +13353,11 @@
       <c r="N295">
         <v>0.20370370370370369</v>
       </c>
-    </row>
-    <row r="296" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P295" s="1">
+        <v>42388</v>
+      </c>
+    </row>
+    <row r="296" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>-0.11290877796901894</v>
       </c>
@@ -12493,8 +13397,11 @@
       <c r="N296">
         <v>0.37037037037037035</v>
       </c>
-    </row>
-    <row r="297" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P296" s="1">
+        <v>42389</v>
+      </c>
+    </row>
+    <row r="297" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>-0.26265060240963856</v>
       </c>
@@ -12534,8 +13441,11 @@
       <c r="N297">
         <v>0.31481481481481483</v>
       </c>
-    </row>
-    <row r="298" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P297" s="1">
+        <v>42390</v>
+      </c>
+    </row>
+    <row r="298" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>-0.1745266781411359</v>
       </c>
@@ -12575,8 +13485,11 @@
       <c r="N298">
         <v>0.22222222222222221</v>
       </c>
-    </row>
-    <row r="299" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P298" s="1">
+        <v>42391</v>
+      </c>
+    </row>
+    <row r="299" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>-0.14629948364888123</v>
       </c>
@@ -12616,8 +13529,11 @@
       <c r="N299">
         <v>0.25925925925925924</v>
       </c>
-    </row>
-    <row r="300" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P299" s="1">
+        <v>42392</v>
+      </c>
+    </row>
+    <row r="300" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>-0.10076878944348816</v>
       </c>
@@ -12657,8 +13573,11 @@
       <c r="N300">
         <v>0.12962962962962962</v>
       </c>
-    </row>
-    <row r="301" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P300" s="1">
+        <v>42398</v>
+      </c>
+    </row>
+    <row r="301" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>-0.21826735513482493</v>
       </c>
@@ -12698,8 +13617,11 @@
       <c r="N301">
         <v>9.2592592592592587E-2</v>
       </c>
-    </row>
-    <row r="302" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P301" s="1">
+        <v>42399</v>
+      </c>
+    </row>
+    <row r="302" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>-0.32250143430866324</v>
       </c>
@@ -12739,8 +13661,11 @@
       <c r="N302">
         <v>0.12962962962962962</v>
       </c>
-    </row>
-    <row r="303" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P302" s="1">
+        <v>42400</v>
+      </c>
+    </row>
+    <row r="303" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>-8.4911072862880077E-2</v>
       </c>
@@ -12780,8 +13705,11 @@
       <c r="N303">
         <v>0.24074074074074073</v>
       </c>
-    </row>
-    <row r="304" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P303" s="1">
+        <v>42401</v>
+      </c>
+    </row>
+    <row r="304" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>-0.133849684452094</v>
       </c>
@@ -12821,8 +13749,11 @@
       <c r="N304">
         <v>0.22222222222222221</v>
       </c>
-    </row>
-    <row r="305" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P304" s="1">
+        <v>42402</v>
+      </c>
+    </row>
+    <row r="305" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>-0.12977624784853695</v>
       </c>
@@ -12862,8 +13793,11 @@
       <c r="N305">
         <v>0.24074074074074073</v>
       </c>
-    </row>
-    <row r="306" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P305" s="1">
+        <v>42403</v>
+      </c>
+    </row>
+    <row r="306" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>-0.11641996557659208</v>
       </c>
@@ -12903,8 +13837,11 @@
       <c r="N306">
         <v>0.14814814814814814</v>
       </c>
-    </row>
-    <row r="307" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P306" s="1">
+        <v>42404</v>
+      </c>
+    </row>
+    <row r="307" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>-4.0654044750430267E-2</v>
       </c>
@@ -12944,8 +13881,11 @@
       <c r="N307">
         <v>0.20370370370370369</v>
       </c>
-    </row>
-    <row r="308" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P307" s="1">
+        <v>42405</v>
+      </c>
+    </row>
+    <row r="308" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>-0.49975903614457828</v>
       </c>
@@ -12985,8 +13925,11 @@
       <c r="N308">
         <v>0.22222222222222221</v>
       </c>
-    </row>
-    <row r="309" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P308" s="1">
+        <v>42406</v>
+      </c>
+    </row>
+    <row r="309" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>-0.42317842799770505</v>
       </c>
@@ -13026,8 +13969,11 @@
       <c r="N309">
         <v>7.407407407407407E-2</v>
       </c>
-    </row>
-    <row r="310" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P309" s="1">
+        <v>42407</v>
+      </c>
+    </row>
+    <row r="310" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>-0.51068273092369476</v>
       </c>
@@ -13067,8 +14013,11 @@
       <c r="N310">
         <v>0.12962962962962962</v>
       </c>
-    </row>
-    <row r="311" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P310" s="1">
+        <v>42408</v>
+      </c>
+    </row>
+    <row r="311" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>-0.56722891566265055</v>
       </c>
@@ -13108,8 +14057,11 @@
       <c r="N311">
         <v>0.14814814814814814</v>
       </c>
-    </row>
-    <row r="312" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P311" s="1">
+        <v>42409</v>
+      </c>
+    </row>
+    <row r="312" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>-0.52803212851405612</v>
       </c>
@@ -13149,8 +14101,11 @@
       <c r="N312">
         <v>0.14814814814814814</v>
       </c>
-    </row>
-    <row r="313" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P312" s="1">
+        <v>42410</v>
+      </c>
+    </row>
+    <row r="313" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>-0.62339644291451513</v>
       </c>
@@ -13190,8 +14145,11 @@
       <c r="N313">
         <v>0.20370370370370369</v>
       </c>
-    </row>
-    <row r="314" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P313" s="1">
+        <v>42411</v>
+      </c>
+    </row>
+    <row r="314" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>-0.59640849110728633</v>
       </c>
@@ -13231,8 +14189,11 @@
       <c r="N314">
         <v>0.16666666666666666</v>
       </c>
-    </row>
-    <row r="315" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P314" s="1">
+        <v>42413</v>
+      </c>
+    </row>
+    <row r="315" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>-0.64182444061962129</v>
       </c>
@@ -13272,8 +14233,11 @@
       <c r="N315">
         <v>9.2592592592592587E-2</v>
       </c>
-    </row>
-    <row r="316" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P315" s="1">
+        <v>42414</v>
+      </c>
+    </row>
+    <row r="316" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>-0.27967871485943774</v>
       </c>
@@ -13313,8 +14277,11 @@
       <c r="N316">
         <v>0.29629629629629628</v>
       </c>
-    </row>
-    <row r="317" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P316" s="1">
+        <v>42418</v>
+      </c>
+    </row>
+    <row r="317" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>-0.52243258749282839</v>
       </c>
@@ -13354,8 +14321,11 @@
       <c r="N317">
         <v>0.18518518518518517</v>
       </c>
-    </row>
-    <row r="318" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P317" s="1">
+        <v>42419</v>
+      </c>
+    </row>
+    <row r="318" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>-0.74586345381526109</v>
       </c>
@@ -13395,8 +14365,11 @@
       <c r="N318">
         <v>0.18518518518518517</v>
       </c>
-    </row>
-    <row r="319" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P318" s="1">
+        <v>42420</v>
+      </c>
+    </row>
+    <row r="319" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>-0.30137693631669538</v>
       </c>
@@ -13436,8 +14409,11 @@
       <c r="N319">
         <v>0.16666666666666666</v>
       </c>
-    </row>
-    <row r="320" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P319" s="1">
+        <v>42421</v>
+      </c>
+    </row>
+    <row r="320" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>-0.22981067125645441</v>
       </c>
@@ -13477,8 +14453,11 @@
       <c r="N320">
         <v>0.20370370370370369</v>
       </c>
-    </row>
-    <row r="321" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P320" s="1">
+        <v>42422</v>
+      </c>
+    </row>
+    <row r="321" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>-0.49012048192771085</v>
       </c>
@@ -13518,8 +14497,11 @@
       <c r="N321">
         <v>0.12962962962962962</v>
       </c>
-    </row>
-    <row r="322" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P321" s="1">
+        <v>42423</v>
+      </c>
+    </row>
+    <row r="322" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>-0.69053356282271938</v>
       </c>
@@ -13559,8 +14541,11 @@
       <c r="N322">
         <v>9.2592592592592587E-2</v>
       </c>
-    </row>
-    <row r="323" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P322" s="1">
+        <v>42424</v>
+      </c>
+    </row>
+    <row r="323" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>-0.60585197934595525</v>
       </c>
@@ -13600,8 +14585,11 @@
       <c r="N323">
         <v>5.5555555555555552E-2</v>
       </c>
-    </row>
-    <row r="324" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P323" s="1">
+        <v>42425</v>
+      </c>
+    </row>
+    <row r="324" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>-0.35036144578313255</v>
       </c>
@@ -13641,8 +14629,11 @@
       <c r="N324">
         <v>0.16666666666666666</v>
       </c>
-    </row>
-    <row r="325" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P324" s="1">
+        <v>42426</v>
+      </c>
+    </row>
+    <row r="325" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>6.5863453815261069E-2</v>
       </c>
@@ -13682,8 +14673,11 @@
       <c r="N325">
         <v>0.12962962962962962</v>
       </c>
-    </row>
-    <row r="326" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P325" s="1">
+        <v>42427</v>
+      </c>
+    </row>
+    <row r="326" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>-1.4297188755020005E-2</v>
       </c>
@@ -13723,8 +14717,11 @@
       <c r="N326">
         <v>0.31481481481481483</v>
       </c>
-    </row>
-    <row r="327" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P326" s="1">
+        <v>42428</v>
+      </c>
+    </row>
+    <row r="327" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>-3.7808376362593189E-2</v>
       </c>
@@ -13764,8 +14761,11 @@
       <c r="N327">
         <v>0.24074074074074073</v>
       </c>
-    </row>
-    <row r="328" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P327" s="1">
+        <v>42429</v>
+      </c>
+    </row>
+    <row r="328" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>-0.29156626506024091</v>
       </c>
@@ -13805,8 +14805,11 @@
       <c r="N328">
         <v>0.16666666666666666</v>
       </c>
-    </row>
-    <row r="329" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P328" s="1">
+        <v>42430</v>
+      </c>
+    </row>
+    <row r="329" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>-0.16034423407917378</v>
       </c>
@@ -13846,8 +14849,11 @@
       <c r="N329">
         <v>0.22222222222222221</v>
       </c>
-    </row>
-    <row r="330" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P329" s="1">
+        <v>42431</v>
+      </c>
+    </row>
+    <row r="330" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>-0.16518646012621907</v>
       </c>
@@ -13887,8 +14893,11 @@
       <c r="N330">
         <v>0.25925925925925924</v>
       </c>
-    </row>
-    <row r="331" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P330" s="1">
+        <v>42432</v>
+      </c>
+    </row>
+    <row r="331" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>-0.22771084337349393</v>
       </c>
@@ -13928,8 +14937,11 @@
       <c r="N331">
         <v>0.18518518518518517</v>
       </c>
-    </row>
-    <row r="332" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P331" s="1">
+        <v>42433</v>
+      </c>
+    </row>
+    <row r="332" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>-0.1818473895582329</v>
       </c>
@@ -13969,8 +14981,11 @@
       <c r="N332">
         <v>0.18518518518518517</v>
       </c>
-    </row>
-    <row r="333" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P332" s="1">
+        <v>42435</v>
+      </c>
+    </row>
+    <row r="333" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>-8.1124497991967859E-2</v>
       </c>
@@ -14010,8 +15025,11 @@
       <c r="N333">
         <v>0.22222222222222221</v>
       </c>
-    </row>
-    <row r="334" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P333" s="1">
+        <v>42436</v>
+      </c>
+    </row>
+    <row r="334" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>3.3138267355134844E-2</v>
       </c>
@@ -14051,8 +15069,11 @@
       <c r="N334">
         <v>0.22222222222222221</v>
       </c>
-    </row>
-    <row r="335" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P334" s="1">
+        <v>42437</v>
+      </c>
+    </row>
+    <row r="335" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>-5.1841652323580005E-2</v>
       </c>
@@ -14092,8 +15113,11 @@
       <c r="N335">
         <v>0.24074074074074073</v>
       </c>
-    </row>
-    <row r="336" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P335" s="1">
+        <v>42438</v>
+      </c>
+    </row>
+    <row r="336" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>-0.19472174411933449</v>
       </c>
@@ -14133,8 +15157,11 @@
       <c r="N336">
         <v>0.22222222222222221</v>
       </c>
-    </row>
-    <row r="337" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P336" s="1">
+        <v>42439</v>
+      </c>
+    </row>
+    <row r="337" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>-0.20557659208261614</v>
       </c>
@@ -14174,8 +15201,11 @@
       <c r="N337">
         <v>0.29629629629629628</v>
       </c>
-    </row>
-    <row r="338" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P337" s="1">
+        <v>42440</v>
+      </c>
+    </row>
+    <row r="338" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>-0.19820998278829599</v>
       </c>
@@ -14215,8 +15245,11 @@
       <c r="N338">
         <v>0.25925925925925924</v>
       </c>
-    </row>
-    <row r="339" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P338" s="1">
+        <v>42441</v>
+      </c>
+    </row>
+    <row r="339" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>-7.409638554216863E-2</v>
       </c>
@@ -14256,8 +15289,11 @@
       <c r="N339">
         <v>0.25925925925925924</v>
       </c>
-    </row>
-    <row r="340" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P339" s="1">
+        <v>42442</v>
+      </c>
+    </row>
+    <row r="340" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>-0.22285714285714275</v>
       </c>
@@ -14297,8 +15333,11 @@
       <c r="N340">
         <v>0.25925925925925924</v>
       </c>
-    </row>
-    <row r="341" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P340" s="1">
+        <v>42443</v>
+      </c>
+    </row>
+    <row r="341" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>-0.39854274239816406</v>
       </c>
@@ -14338,8 +15377,11 @@
       <c r="N341">
         <v>0.12962962962962962</v>
       </c>
-    </row>
-    <row r="342" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P341" s="1">
+        <v>42444</v>
+      </c>
+    </row>
+    <row r="342" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>-0.20642570281124487</v>
       </c>
@@ -14379,8 +15421,11 @@
       <c r="N342">
         <v>0.25925925925925924</v>
       </c>
-    </row>
-    <row r="343" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P342" s="1">
+        <v>42446</v>
+      </c>
+    </row>
+    <row r="343" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>-0.13624784853700506</v>
       </c>
@@ -14420,8 +15465,11 @@
       <c r="N343">
         <v>0.24074074074074073</v>
       </c>
-    </row>
-    <row r="344" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P343" s="1">
+        <v>42447</v>
+      </c>
+    </row>
+    <row r="344" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>-8.7963281698221471E-2</v>
       </c>
@@ -14461,8 +15509,11 @@
       <c r="N344">
         <v>0.25925925925925924</v>
       </c>
-    </row>
-    <row r="345" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P344" s="1">
+        <v>42450</v>
+      </c>
+    </row>
+    <row r="345" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>-2.9627079747561562E-2</v>
       </c>
@@ -14502,8 +15553,11 @@
       <c r="N345">
         <v>0.29629629629629628</v>
       </c>
-    </row>
-    <row r="346" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P345" s="1">
+        <v>42451</v>
+      </c>
+    </row>
+    <row r="346" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>-0.1468043602983361</v>
       </c>
@@ -14543,8 +15597,11 @@
       <c r="N346">
         <v>0.22222222222222221</v>
       </c>
-    </row>
-    <row r="347" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P346" s="1">
+        <v>42452</v>
+      </c>
+    </row>
+    <row r="347" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>-7.0567986230636801E-2</v>
       </c>
@@ -14584,8 +15641,11 @@
       <c r="N347">
         <v>0.18518518518518517</v>
       </c>
-    </row>
-    <row r="348" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P347" s="1">
+        <v>42453</v>
+      </c>
+    </row>
+    <row r="348" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>-8.7550200803212838E-2</v>
       </c>
@@ -14625,8 +15685,11 @@
       <c r="N348">
         <v>0.22222222222222221</v>
       </c>
-    </row>
-    <row r="349" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P348" s="1">
+        <v>42454</v>
+      </c>
+    </row>
+    <row r="349" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>-3.6741250717154249E-2</v>
       </c>
@@ -14666,8 +15729,11 @@
       <c r="N349">
         <v>0.18518518518518517</v>
       </c>
-    </row>
-    <row r="350" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P349" s="1">
+        <v>42455</v>
+      </c>
+    </row>
+    <row r="350" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>0.14010327022375219</v>
       </c>
@@ -14707,8 +15773,11 @@
       <c r="N350">
         <v>0.27777777777777779</v>
       </c>
-    </row>
-    <row r="351" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P350" s="1">
+        <v>42457</v>
+      </c>
+    </row>
+    <row r="351" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>6.1158921399885338E-2</v>
       </c>
@@ -14748,8 +15817,11 @@
       <c r="N351">
         <v>0.18518518518518517</v>
       </c>
-    </row>
-    <row r="352" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P351" s="1">
+        <v>42458</v>
+      </c>
+    </row>
+    <row r="352" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>8.4337349397590425E-2</v>
       </c>
@@ -14789,8 +15861,11 @@
       <c r="N352">
         <v>0.14814814814814814</v>
       </c>
-    </row>
-    <row r="353" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P352" s="1">
+        <v>42460</v>
+      </c>
+    </row>
+    <row r="353" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>-2.9076305220883544E-2</v>
       </c>
@@ -14830,8 +15905,11 @@
       <c r="N353">
         <v>0.24074074074074073</v>
       </c>
-    </row>
-    <row r="354" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P353" s="1">
+        <v>42461</v>
+      </c>
+    </row>
+    <row r="354" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>6.7469879518072276E-2</v>
       </c>
@@ -14871,8 +15949,11 @@
       <c r="N354">
         <v>0.24074074074074073</v>
       </c>
-    </row>
-    <row r="355" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P354" s="1">
+        <v>42462</v>
+      </c>
+    </row>
+    <row r="355" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>9.9827882960414008E-3</v>
       </c>
@@ -14912,8 +15993,11 @@
       <c r="N355">
         <v>0.18518518518518517</v>
       </c>
-    </row>
-    <row r="356" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P355" s="1">
+        <v>42463</v>
+      </c>
+    </row>
+    <row r="356" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>-6.120481927710833E-2</v>
       </c>
@@ -14953,8 +16037,11 @@
       <c r="N356">
         <v>0.18518518518518517</v>
       </c>
-    </row>
-    <row r="357" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P356" s="1">
+        <v>42465</v>
+      </c>
+    </row>
+    <row r="357" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>0.41794606999426276</v>
       </c>
@@ -14994,8 +16081,11 @@
       <c r="N357">
         <v>0.14814814814814814</v>
       </c>
-    </row>
-    <row r="358" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P357" s="1">
+        <v>42466</v>
+      </c>
+    </row>
+    <row r="358" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>0.24698795180722902</v>
       </c>
@@ -15035,8 +16125,11 @@
       <c r="N358">
         <v>0.20370370370370369</v>
       </c>
-    </row>
-    <row r="359" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P358" s="1">
+        <v>42467</v>
+      </c>
+    </row>
+    <row r="359" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>-1.0556511761330488E-3</v>
       </c>
@@ -15076,8 +16169,11 @@
       <c r="N359">
         <v>9.2592592592592587E-2</v>
       </c>
-    </row>
-    <row r="360" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P359" s="1">
+        <v>42468</v>
+      </c>
+    </row>
+    <row r="360" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>0.17510040160642584</v>
       </c>
@@ -15117,8 +16213,11 @@
       <c r="N360">
         <v>7.407407407407407E-2</v>
       </c>
-    </row>
-    <row r="361" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P360" s="1">
+        <v>42469</v>
+      </c>
+    </row>
+    <row r="361" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>6.9879518072289246E-2</v>
       </c>
@@ -15158,8 +16257,11 @@
       <c r="N361">
         <v>7.407407407407407E-2</v>
       </c>
-    </row>
-    <row r="362" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P361" s="1">
+        <v>42470</v>
+      </c>
+    </row>
+    <row r="362" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>0.20562248995983942</v>
       </c>
@@ -15199,8 +16301,11 @@
       <c r="N362">
         <v>0.18518518518518517</v>
       </c>
-    </row>
-    <row r="363" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P362" s="1">
+        <v>42471</v>
+      </c>
+    </row>
+    <row r="363" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>0.24377510040160646</v>
       </c>
@@ -15240,8 +16345,11 @@
       <c r="N363">
         <v>0.14814814814814814</v>
       </c>
-    </row>
-    <row r="364" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P363" s="1">
+        <v>42472</v>
+      </c>
+    </row>
+    <row r="364" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>9.9242685025817609E-2</v>
       </c>
@@ -15281,8 +16389,11 @@
       <c r="N364">
         <v>9.2592592592592587E-2</v>
       </c>
-    </row>
-    <row r="365" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P364" s="1">
+        <v>42473</v>
+      </c>
+    </row>
+    <row r="365" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>6.7469879518072276E-2</v>
       </c>
@@ -15321,6 +16432,9 @@
       </c>
       <c r="N365">
         <v>0.16666666666666666</v>
+      </c>
+      <c r="P365" s="1">
+        <v>42474</v>
       </c>
     </row>
   </sheetData>
